--- a/xlsx/a69_f26UPPachuca.xlsx
+++ b/xlsx/a69_f26UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2DA ENTREGA DEL REPORTE DE LAS 48 FRACCIONES COMUNES\ENTREGA 3ER TRIMESTRE DE LAS 48 FRACIONES COMUNES\Vo. Bo. #1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -407,21 +407,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z2" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +766,7 @@
     <col min="27" max="27" width="53.7109375" customWidth="1"/>
     <col min="28" max="28" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="43" customWidth="1"/>
+    <col min="30" max="30" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
@@ -773,38 +775,38 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:30" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -991,38 +993,38 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
     </row>
     <row r="7" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1116,15 +1118,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2020</v>
       </c>
       <c r="B8" s="5">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C8" s="5">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1153,10 +1155,10 @@
         <v>91</v>
       </c>
       <c r="AB8" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC8" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD8" s="4" t="s">
         <v>92</v>
@@ -1173,19 +1175,19 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8">
       <formula1>Hidden_17</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8">
       <formula1>Hidden_29</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8">
       <formula1>Hidden_310</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y8:Y201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y8">
       <formula1>Hidden_424</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Z8:Z201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Z8">
       <formula1>Hidden_525</formula1>
     </dataValidation>
   </dataValidations>
@@ -1198,17 +1200,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1221,17 +1228,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1244,52 +1256,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="7" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1302,17 +1319,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1323,21 +1342,70 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="23" width="9.140625" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/a69_f26UPPachuca.xlsx
+++ b/xlsx/a69_f26UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -398,9 +398,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
@@ -409,6 +406,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1119,14 +1119,14 @@
       </c>
     </row>
     <row r="8" spans="1:30" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="5">
-        <v>44105</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44196</v>
+      <c r="A8" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44286</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1154,13 +1154,13 @@
       <c r="AA8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AB8" s="3">
-        <v>44206</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>44206</v>
-      </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AB8" s="4">
+        <v>44298</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>44298</v>
+      </c>
+      <c r="AD8" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A3" sqref="A3:XFD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,12 +1210,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A3" sqref="A3:XFD94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,12 +1238,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A9"/>
+      <selection activeCell="A10" sqref="A10:XFD127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,47 +1266,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1320,18 +1320,18 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A3" sqref="A3:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1345,67 +1345,67 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="23" width="9.140625" style="6"/>
+    <col min="2" max="23" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/a69_f26UPPachuca.xlsx
+++ b/xlsx/a69_f26UPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,10 +1123,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="4">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C8" s="4">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1155,10 +1155,10 @@
         <v>91</v>
       </c>
       <c r="AB8" s="4">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC8" s="4">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AD8" s="3" t="s">
         <v>92</v>

--- a/xlsx/a69_f26UPPachuca.xlsx
+++ b/xlsx/a69_f26UPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,10 +1123,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="4">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C8" s="4">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1155,10 +1155,10 @@
         <v>91</v>
       </c>
       <c r="AB8" s="4">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC8" s="4">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AD8" s="3" t="s">
         <v>92</v>

--- a/xlsx/a69_f26UPPachuca.xlsx
+++ b/xlsx/a69_f26UPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,10 +1123,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="4">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C8" s="4">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1155,10 +1155,10 @@
         <v>91</v>
       </c>
       <c r="AB8" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC8" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD8" s="3" t="s">
         <v>92</v>

--- a/xlsx/a69_f26UPPachuca.xlsx
+++ b/xlsx/a69_f26UPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9240" windowHeight="3990"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -270,7 +265,7 @@
     <t>Recibe recursos públicos</t>
   </si>
   <si>
-    <t xml:space="preserve">Realiza actos de autoridad </t>
+    <t>Realiza actos de autoridad</t>
   </si>
   <si>
     <t>Educación</t>
@@ -309,14 +304,14 @@
     <t>Secretaría Administrativa (UPP)</t>
   </si>
   <si>
-    <t>De conformidad con las atribuciones conferidas en el Artículo 4 del Decreto publicado el 4 de febrero de 2008, que modifica diversas disposiciones del Diverso que abrogó al que creó a la Universidad Politécnica de Pachuca;  no ésta facultado para asignar o permitir usar recursos públicos a personas.</t>
+    <t>De conformidad con las atribuciones conferidas en el Artículo 4 del Decreto publicado el 4 de febrero de 2008, que modifica diversas disposiciones del Diverso que abrogó al que creó a la Universidad Politécnica de Pachuca;  no ésta facultado para asignar o permitir usar recursos públicos a personas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -336,13 +331,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -390,41 +378,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,39 +425,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -564,166 +536,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -731,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,33 +688,33 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
-    <col min="6" max="6" width="46" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="38.140625" customWidth="1"/>
+    <col min="4" max="4" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.85546875" customWidth="1"/>
+    <col min="12" max="12" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="47.42578125" customWidth="1"/>
-    <col min="15" max="15" width="49.85546875" customWidth="1"/>
+    <col min="14" max="14" width="53" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="63.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="43.7109375" customWidth="1"/>
-    <col min="19" max="19" width="43" customWidth="1"/>
+    <col min="18" max="18" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="56.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39" customWidth="1"/>
-    <col min="22" max="22" width="35.5703125" customWidth="1"/>
-    <col min="23" max="23" width="50.5703125" customWidth="1"/>
-    <col min="24" max="24" width="50.140625" customWidth="1"/>
-    <col min="25" max="25" width="50.28515625" customWidth="1"/>
-    <col min="26" max="26" width="44.85546875" customWidth="1"/>
-    <col min="27" max="27" width="53.7109375" customWidth="1"/>
+    <col min="21" max="21" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="73.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="52.140625" customWidth="1"/>
+    <col min="30" max="30" width="134" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
@@ -775,38 +723,38 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:30" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -993,38 +941,38 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
     </row>
     <row r="7" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1118,15 +1066,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B8" s="4">
-        <v>44470</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44561</v>
+    <row r="8" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44651</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1154,13 +1102,13 @@
       <c r="AA8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AB8" s="4">
-        <v>44571</v>
-      </c>
-      <c r="AC8" s="4">
-        <v>44571</v>
-      </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AB8" s="3">
+        <v>44659</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>44659</v>
+      </c>
+      <c r="AD8" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1175,24 +1123,24 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H201">
       <formula1>Hidden_17</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J201">
       <formula1>Hidden_29</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K201">
       <formula1>Hidden_310</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y8:Y201">
       <formula1>Hidden_424</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Z8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Z8:Z201">
       <formula1>Hidden_525</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1200,22 +1148,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD93"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1228,22 +1171,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD94"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1256,57 +1194,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD127"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1319,19 +1252,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD76"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1342,70 +1273,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="23" width="9.140625" style="5"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/a69_f26UPPachuca.xlsx
+++ b/xlsx/a69_f26UPPachuca.xlsx
@@ -351,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -374,11 +374,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -397,6 +406,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,7 +684,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -680,7 +695,7 @@
   <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +754,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -750,11 +765,11 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1071,10 +1086,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1103,10 +1118,10 @@
         <v>91</v>
       </c>
       <c r="AB8" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC8" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD8" s="4" t="s">
         <v>92</v>

--- a/xlsx/a69_f26UPPachuca.xlsx
+++ b/xlsx/a69_f26UPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2667AD1E-866C-4864-A9EB-E58B9A174DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9240" windowHeight="3990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -301,7 +307,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>Secretaría Administrativa (UPP)</t>
+    <t>Subdirección de Recursos Financieros (UPP)</t>
   </si>
   <si>
     <t>De conformidad con las atribuciones conferidas en el Artículo 4 del Decreto publicado el 4 de febrero de 2008, que modifica diversas disposiciones del Diverso que abrogó al que creó a la Universidad Politécnica de Pachuca;  no ésta facultado para asignar o permitir usar recursos públicos a personas.</t>
@@ -310,7 +316,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -324,13 +330,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -351,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -374,15 +378,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -398,19 +393,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,39 +435,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -505,6 +500,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -540,6 +552,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -551,151 +580,175 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +782,7 @@
     <col min="27" max="27" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="134" customWidth="1"/>
+    <col min="30" max="30" width="76.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
@@ -738,38 +791,38 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:30" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:30" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -956,38 +1009,38 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
     </row>
     <row r="7" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1081,15 +1134,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1107,7 +1160,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="T8" s="3"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
@@ -1118,12 +1171,12 @@
         <v>91</v>
       </c>
       <c r="AB8" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC8" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AD8" s="4" t="s">
+        <v>44844</v>
+      </c>
+      <c r="AD8" s="9" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1138,29 +1191,29 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H201" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_17</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J201" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Hidden_29</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K201" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Hidden_310</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y8:Y201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y8:Y201" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Hidden_424</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Z8:Z201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Z8:Z201" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Hidden_525</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1183,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1206,7 +1259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1264,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1287,7 +1340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
